--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2772.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2772.xlsx
@@ -354,7 +354,7 @@
         <v>2.429087304295352</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.369069700625443</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2772.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2772.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166607940376264</v>
+        <v>1.450082182884216</v>
       </c>
       <c r="B1">
-        <v>2.429087304295352</v>
+        <v>1.738661170005798</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.331111192703247</v>
       </c>
       <c r="D1">
-        <v>2.369069700625443</v>
+        <v>5.025181293487549</v>
       </c>
       <c r="E1">
-        <v>1.229274493300947</v>
+        <v>1.899722218513489</v>
       </c>
     </row>
   </sheetData>
